--- a/DecisionTable.xlsx
+++ b/DecisionTable.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sazga\Desktop\durham\sem2\ExpertSystems\project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sazga\Desktop\durham\sem2\ExpertSystems\project\KE_WebApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4AF1670-B3EF-4B1C-92E8-254546E2CBCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96CF60A7-5D0A-42F4-820A-AFDEE2F8CDBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{988A2738-9A6B-4842-B01E-26D9DC5195F5}"/>
   </bookViews>
@@ -184,9 +184,6 @@
     <t>1000-1500</t>
   </si>
   <si>
-    <t>1501-2500</t>
-  </si>
-  <si>
     <t>Moderate/Low</t>
   </si>
   <si>
@@ -224,6 +221,9 @@
   </si>
   <si>
     <t>&gt;4</t>
+  </si>
+  <si>
+    <t>1501-2000</t>
   </si>
 </sst>
 </file>
@@ -247,12 +247,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -267,10 +273,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -590,13 +600,13 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="28.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="15.77734375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.109375" bestFit="1" customWidth="1"/>
@@ -691,10 +701,10 @@
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H4" s="2"/>
     </row>
@@ -718,7 +728,7 @@
         <v>47</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H5" s="2"/>
     </row>
@@ -739,60 +749,60 @@
         <v>3</v>
       </c>
       <c r="F6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4">
+        <v>1</v>
+      </c>
+      <c r="C7" s="4">
+        <v>1</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2">
-        <v>1</v>
-      </c>
-      <c r="C7" s="2">
-        <v>1</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F7" s="2" t="s">
+      <c r="G8" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2">
-        <v>0</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="H8" s="2"/>
+      <c r="H8" s="4"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -808,63 +818,63 @@
         <v>48</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="F9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F10" s="2" t="s">
+      <c r="G10" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="4">
+        <v>1</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="F11" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="H10" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="2">
-        <v>1</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H11" s="2"/>
+      <c r="H11" s="4"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -904,7 +914,7 @@
         <v>42</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>25</v>
@@ -928,7 +938,7 @@
         <v>42</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>47</v>
@@ -952,13 +962,13 @@
         <v>45</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H15" s="2"/>
     </row>
@@ -979,7 +989,7 @@
         <v>46</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>28</v>
@@ -1031,7 +1041,7 @@
         <v>46</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>46</v>
